--- a/regionseng/10/standard of living/incomes.xlsx
+++ b/regionseng/10/standard of living/incomes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -288,7 +288,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -342,16 +342,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -364,6 +354,17 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,35 +676,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L57"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="13" width="9.140625" style="2"/>
+    <col min="14" max="14" width="9.140625" style="23"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:14" ht="30" customHeight="1">
+      <c r="A1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="10">
         <v>2011</v>
@@ -738,8 +743,14 @@
       <c r="L2" s="11">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
+      <c r="M2" s="11">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="13" t="s">
         <v>8</v>
       </c>
@@ -773,11 +784,17 @@
       <c r="K3" s="7">
         <v>384.15309996780832</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="7">
         <v>430.27293449013825</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
+      <c r="M3" s="16">
+        <v>488.99293456957469</v>
+      </c>
+      <c r="N3" s="16">
+        <v>660.25698723511141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
@@ -811,11 +828,17 @@
       <c r="K4" s="7">
         <v>380.68923818273663</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="7">
         <v>426.62999985914331</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
+      <c r="M4" s="16">
+        <v>485.50120869080251</v>
+      </c>
+      <c r="N4" s="16">
+        <v>655.37714028817231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15" customHeight="1">
       <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
@@ -849,11 +872,17 @@
       <c r="K5" s="8">
         <v>224.85050545352172</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="8">
         <v>248.49005226836138</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+      <c r="M5" s="17">
+        <v>272.35163232867939</v>
+      </c>
+      <c r="N5" s="17">
+        <v>384.38720857191981</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
@@ -887,11 +916,17 @@
       <c r="K6" s="8">
         <v>30.122370986796067</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="8">
         <v>38.166823013559977</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+      <c r="M6" s="17">
+        <v>58.016825508626297</v>
+      </c>
+      <c r="N6" s="17">
+        <v>67.416409999593085</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
@@ -925,11 +960,17 @@
       <c r="K7" s="8">
         <v>9.4019655253092457E-2</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="8">
         <v>0.3129895853678385</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+      <c r="M7" s="17">
+        <v>0.46254434970092773</v>
+      </c>
+      <c r="N7" s="17">
+        <v>1.3942207875569663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
@@ -963,11 +1004,17 @@
       <c r="K8" s="8">
         <v>5.980869869486491</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="8">
         <v>10.141565569559733</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+      <c r="M8" s="17">
+        <v>7.2705114775594071</v>
+      </c>
+      <c r="N8" s="17">
+        <v>7.9560317953491202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" customHeight="1">
       <c r="A9" s="14" t="s">
         <v>3</v>
       </c>
@@ -1001,11 +1048,17 @@
       <c r="K9" s="8">
         <v>70.941367394063306</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="8">
         <v>77.138342105229711</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+      <c r="M9" s="17">
+        <v>90.738670920379633</v>
+      </c>
+      <c r="N9" s="17">
+        <v>112.4241325286153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" customHeight="1">
       <c r="A10" s="14" t="s">
         <v>4</v>
       </c>
@@ -1039,11 +1092,17 @@
       <c r="K10" s="8">
         <v>7.271554335021972</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="8">
         <v>9.0424466593831365</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+      <c r="M10" s="17">
+        <v>9.3810178883870456</v>
+      </c>
+      <c r="N10" s="17">
+        <v>12.341879617818195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15" customHeight="1">
       <c r="A11" s="14" t="s">
         <v>5</v>
       </c>
@@ -1077,11 +1136,17 @@
       <c r="K11" s="8">
         <v>41.428550488594091</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="8">
         <v>43.337780657681392</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+      <c r="M11" s="17">
+        <v>47.280006217469811</v>
+      </c>
+      <c r="N11" s="17">
+        <v>69.457256987319951</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>10</v>
       </c>
@@ -1115,11 +1180,17 @@
       <c r="K12" s="7">
         <v>3.4638617850716562</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L12" s="7">
         <v>3.6429346309951698</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+      <c r="M12" s="16">
+        <v>3.4917258787721575</v>
+      </c>
+      <c r="N12" s="16">
+        <v>4.8798469469388852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>11</v>
       </c>
@@ -1153,11 +1224,17 @@
       <c r="K13" s="7">
         <v>17.666549539337158</v>
       </c>
-      <c r="L13" s="19">
+      <c r="L13" s="7">
         <v>22.342141942431137</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
+      <c r="M13" s="16">
+        <v>26.176344108886713</v>
+      </c>
+      <c r="N13" s="16">
+        <v>40.156355411275221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="14" t="s">
         <v>6</v>
       </c>
@@ -1191,11 +1268,17 @@
       <c r="K14" s="8">
         <v>0.29023509674072268</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="8">
         <v>0.7904660888671875</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
+      <c r="M14" s="17">
+        <v>1.5407672680664062</v>
+      </c>
+      <c r="N14" s="17">
+        <v>3.2399536717732746</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15" customHeight="1">
       <c r="A15" s="14" t="s">
         <v>7</v>
       </c>
@@ -1229,11 +1312,17 @@
       <c r="K15" s="8">
         <v>17.376314442596435</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="8">
         <v>21.551675853563946</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
+      <c r="M15" s="17">
+        <v>24.63557684082031</v>
+      </c>
+      <c r="N15" s="17">
+        <v>36.91640173950195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>12</v>
       </c>
@@ -1267,11 +1356,17 @@
       <c r="K16" s="7">
         <v>398.35578772207384</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="7">
         <v>448.97214180157431</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
+      <c r="M16" s="16">
+        <v>511.67755279968929</v>
+      </c>
+      <c r="N16" s="16">
+        <v>695.5334956994476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
       <c r="A17" s="15" t="s">
         <v>13</v>
       </c>
@@ -1305,27 +1400,35 @@
       <c r="K17" s="9">
         <v>401.81964950714558</v>
       </c>
-      <c r="L17" s="21">
+      <c r="L17" s="9">
         <v>452.61507643256942</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1">
-      <c r="A20" s="16" t="s">
+      <c r="M17" s="18">
+        <v>515.16927867846141</v>
+      </c>
+      <c r="N17" s="18">
+        <v>700.41334264638658</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="30" customHeight="1">
+      <c r="A20" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-    </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+    </row>
+    <row r="21" spans="1:14" ht="15" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="10">
         <v>2011</v>
@@ -1360,8 +1463,14 @@
       <c r="L21" s="12">
         <v>2021</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1">
+      <c r="M21" s="12">
+        <v>2022</v>
+      </c>
+      <c r="N21" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15" customHeight="1">
       <c r="A22" s="13" t="s">
         <v>8</v>
       </c>
@@ -1395,11 +1504,17 @@
       <c r="K22" s="7">
         <v>1080.4792238904129</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L22" s="7">
         <v>1145.0057408920343</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1">
+      <c r="M22" s="19">
+        <v>1286.0879313358919</v>
+      </c>
+      <c r="N22" s="19">
+        <v>1673.3674277978812</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15" customHeight="1">
       <c r="A23" s="13" t="s">
         <v>9</v>
       </c>
@@ -1433,11 +1548,17 @@
       <c r="K23" s="7">
         <v>1070.7366741270203</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="7">
         <v>1135.3114730638092</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
+      <c r="M23" s="16">
+        <v>1276.9044315452968</v>
+      </c>
+      <c r="N23" s="16">
+        <v>1660.9998541235134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>0</v>
       </c>
@@ -1471,11 +1592,17 @@
       <c r="K24" s="8">
         <v>632.42051058327218</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="8">
         <v>661.26059436898345</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1">
+      <c r="M24" s="17">
+        <v>716.30512969652727</v>
+      </c>
+      <c r="N24" s="17">
+        <v>974.19799702529485</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15" customHeight="1">
       <c r="A25" s="14" t="s">
         <v>1</v>
       </c>
@@ -1509,11 +1636,17 @@
       <c r="K25" s="8">
         <v>84.722981614048848</v>
       </c>
-      <c r="L25" s="20">
+      <c r="L25" s="8">
         <v>101.56630352295144</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
+      <c r="M25" s="17">
+        <v>152.58858324147891</v>
+      </c>
+      <c r="N25" s="17">
+        <v>170.86138696509551</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>2</v>
       </c>
@@ -1547,11 +1680,17 @@
       <c r="K26" s="8">
         <v>0.26444218241846368</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="8">
         <v>0.83290126651879004</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
+      <c r="M26" s="17">
+        <v>1.2165261781984542</v>
+      </c>
+      <c r="N26" s="17">
+        <v>3.5335387556084465</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15" customHeight="1">
       <c r="A27" s="14" t="s">
         <v>14</v>
       </c>
@@ -1585,11 +1724,17 @@
       <c r="K27" s="8">
         <v>16.821953630762952</v>
       </c>
-      <c r="L27" s="20">
+      <c r="L27" s="8">
         <v>26.987871808713624</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
+      <c r="M27" s="17">
+        <v>19.121988079764023</v>
+      </c>
+      <c r="N27" s="17">
+        <v>20.163913019099571</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>3</v>
       </c>
@@ -1623,11 +1768,17 @@
       <c r="K28" s="8">
         <v>199.53157631706063</v>
       </c>
-      <c r="L28" s="20">
+      <c r="L28" s="8">
         <v>205.27399581394332</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
+      <c r="M28" s="17">
+        <v>238.64948003569842</v>
+      </c>
+      <c r="N28" s="17">
+        <v>284.92978508204254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15" customHeight="1">
       <c r="A29" s="14" t="s">
         <v>4</v>
       </c>
@@ -1661,11 +1812,17 @@
       <c r="K29" s="8">
         <v>20.452167078802422</v>
       </c>
-      <c r="L29" s="20">
+      <c r="L29" s="8">
         <v>24.062990039037633</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
+      <c r="M29" s="17">
+        <v>24.672777533116054</v>
+      </c>
+      <c r="N29" s="17">
+        <v>31.279486244808762</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>5</v>
       </c>
@@ -1699,11 +1856,17 @@
       <c r="K30" s="8">
         <v>116.52304272065486</v>
       </c>
-      <c r="L30" s="20">
+      <c r="L30" s="8">
         <v>115.32681624366097</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
+      <c r="M30" s="17">
+        <v>124.34994678051375</v>
+      </c>
+      <c r="N30" s="17">
+        <v>176.03374703156376</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15" customHeight="1">
       <c r="A31" s="13" t="s">
         <v>10</v>
       </c>
@@ -1737,11 +1900,17 @@
       <c r="K31" s="7">
         <v>9.7425497633925406</v>
       </c>
-      <c r="L31" s="19">
+      <c r="L31" s="7">
         <v>9.6942678282253798</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
+      <c r="M31" s="16">
+        <v>9.1834997905949169</v>
+      </c>
+      <c r="N31" s="16">
+        <v>12.367573674367964</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1">
       <c r="A32" s="13" t="s">
         <v>11</v>
       </c>
@@ -1775,11 +1944,17 @@
       <c r="K32" s="7">
         <v>49.689407001229782</v>
       </c>
-      <c r="L32" s="19">
+      <c r="L32" s="7">
         <v>59.455008059528978</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
+      <c r="M32" s="16">
+        <v>68.845739610875</v>
+      </c>
+      <c r="N32" s="16">
+        <v>101.77300424444458</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15" customHeight="1">
       <c r="A33" s="14" t="s">
         <v>6</v>
       </c>
@@ -1813,11 +1988,17 @@
       <c r="K33" s="8">
         <v>0.81632295066329974</v>
       </c>
-      <c r="L33" s="20">
+      <c r="L33" s="8">
         <v>2.1035211308512993</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
+      <c r="M33" s="17">
+        <v>4.0523329651006197</v>
+      </c>
+      <c r="N33" s="17">
+        <v>8.2113980567220466</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15" customHeight="1">
       <c r="A34" s="14" t="s">
         <v>7</v>
       </c>
@@ -1851,11 +2032,17 @@
       <c r="K34" s="8">
         <v>48.873084050566483</v>
       </c>
-      <c r="L34" s="20">
+      <c r="L34" s="8">
         <v>57.35148692867768</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
+      <c r="M34" s="17">
+        <v>64.793406645774382</v>
+      </c>
+      <c r="N34" s="17">
+        <v>93.561606187722518</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15" customHeight="1">
       <c r="A35" s="13" t="s">
         <v>12</v>
       </c>
@@ -1889,11 +2076,17 @@
       <c r="K35" s="7">
         <v>1120.4260811282502</v>
       </c>
-      <c r="L35" s="19">
+      <c r="L35" s="7">
         <v>1194.7664811233381</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1">
+      <c r="M35" s="16">
+        <v>1345.750171156172</v>
+      </c>
+      <c r="N35" s="16">
+        <v>1762.772858367958</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15" customHeight="1">
       <c r="A36" s="15" t="s">
         <v>13</v>
       </c>
@@ -1927,27 +2120,35 @@
       <c r="K36" s="9">
         <v>1130.1686308916426</v>
       </c>
-      <c r="L36" s="21">
+      <c r="L36" s="9">
         <v>1204.4607489515633</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="30" customHeight="1">
-      <c r="A39" s="16" t="s">
+      <c r="M36" s="18">
+        <v>1354.9336709467668</v>
+      </c>
+      <c r="N36" s="18">
+        <v>1775.140432042326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="30" customHeight="1">
+      <c r="A39" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-    </row>
-    <row r="40" spans="1:12" ht="15" customHeight="1">
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+    </row>
+    <row r="40" spans="1:14" ht="15" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="10">
         <v>2011</v>
@@ -1982,8 +2183,14 @@
       <c r="L40" s="12">
         <v>2021</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="15" customHeight="1">
+      <c r="M40" s="12">
+        <v>2022</v>
+      </c>
+      <c r="N40" s="12">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15" customHeight="1">
       <c r="A41" s="13" t="s">
         <v>8</v>
       </c>
@@ -2017,11 +2224,17 @@
       <c r="K41" s="7">
         <v>324.22962802612079</v>
       </c>
-      <c r="L41" s="19">
+      <c r="L41" s="7">
         <v>357.74660803252306</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" customHeight="1">
+      <c r="M41" s="16">
+        <v>406.89428092412169</v>
+      </c>
+      <c r="N41" s="16">
+        <v>528.1559443027179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" customHeight="1">
       <c r="A42" s="13" t="s">
         <v>9</v>
       </c>
@@ -2055,11 +2268,17 @@
       <c r="K42" s="7">
         <v>321.30608890017913</v>
       </c>
-      <c r="L42" s="19">
+      <c r="L42" s="7">
         <v>354.7177224042253</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" ht="15" customHeight="1">
+      <c r="M42" s="16">
+        <v>403.9887925413953</v>
+      </c>
+      <c r="N42" s="16">
+        <v>524.2524336664942</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15" customHeight="1">
       <c r="A43" s="14" t="s">
         <v>0</v>
       </c>
@@ -2093,11 +2312,17 @@
       <c r="K43" s="8">
         <v>189.77640880885721</v>
       </c>
-      <c r="L43" s="20">
+      <c r="L43" s="8">
         <v>206.60484590826186</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="15" customHeight="1">
+      <c r="M43" s="17">
+        <v>226.62560900278478</v>
+      </c>
+      <c r="N43" s="17">
+        <v>307.48086433941199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15" customHeight="1">
       <c r="A44" s="14" t="s">
         <v>1</v>
       </c>
@@ -2131,11 +2356,17 @@
       <c r="K44" s="8">
         <v>25.423627041229466</v>
       </c>
-      <c r="L44" s="20">
+      <c r="L44" s="8">
         <v>31.733465849201977</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="15" customHeight="1">
+      <c r="M44" s="17">
+        <v>48.276187298313481</v>
+      </c>
+      <c r="N44" s="17">
+        <v>53.928058881950442</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15" customHeight="1">
       <c r="A45" s="14" t="s">
         <v>2</v>
       </c>
@@ -2169,11 +2400,17 @@
       <c r="K45" s="8">
         <v>7.9353668764898161E-2</v>
       </c>
-      <c r="L45" s="20">
+      <c r="L45" s="8">
         <v>0.26023240956936461</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="15" customHeight="1">
+      <c r="M45" s="17">
+        <v>0.38488623712475362</v>
+      </c>
+      <c r="N45" s="17">
+        <v>1.1152717969744341</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="15" customHeight="1">
       <c r="A46" s="14" t="s">
         <v>14</v>
       </c>
@@ -2207,11 +2444,17 @@
       <c r="K46" s="8">
         <v>5.0479228547647779</v>
       </c>
-      <c r="L46" s="20">
+      <c r="L46" s="8">
         <v>8.4321145761785594</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="15" customHeight="1">
+      <c r="M46" s="17">
+        <v>6.0498410722766636</v>
+      </c>
+      <c r="N46" s="17">
+        <v>6.364227213060544</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="15" customHeight="1">
       <c r="A47" s="14" t="s">
         <v>3</v>
       </c>
@@ -2245,11 +2488,17 @@
       <c r="K47" s="8">
         <v>59.87532877847142</v>
       </c>
-      <c r="L47" s="20">
+      <c r="L47" s="8">
         <v>64.135989102123673</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="15" customHeight="1">
+      <c r="M47" s="17">
+        <v>75.504253018823931</v>
+      </c>
+      <c r="N47" s="17">
+        <v>89.930852722533885</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15" customHeight="1">
       <c r="A48" s="14" t="s">
         <v>4</v>
       </c>
@@ -2283,11 +2532,17 @@
       <c r="K48" s="8">
         <v>6.1372753660284634</v>
       </c>
-      <c r="L48" s="20">
+      <c r="L48" s="8">
         <v>7.5182619249398313</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="15" customHeight="1">
+      <c r="M48" s="17">
+        <v>7.8060075272692275</v>
+      </c>
+      <c r="N48" s="17">
+        <v>9.8725756940730154</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="15" customHeight="1">
       <c r="A49" s="14" t="s">
         <v>5</v>
       </c>
@@ -2321,11 +2576,17 @@
       <c r="K49" s="8">
         <v>34.966172382062908</v>
       </c>
-      <c r="L49" s="20">
+      <c r="L49" s="8">
         <v>36.032812633950023</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
+      <c r="M49" s="17">
+        <v>39.342008384802483</v>
+      </c>
+      <c r="N49" s="17">
+        <v>55.56058301849005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="15" customHeight="1">
       <c r="A50" s="13" t="s">
         <v>10</v>
       </c>
@@ -2359,11 +2620,17 @@
       <c r="K50" s="7">
         <v>2.9235391259416916</v>
       </c>
-      <c r="L50" s="19">
+      <c r="L50" s="7">
         <v>3.0288856282978753</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
+      <c r="M50" s="16">
+        <v>2.9054883827263054</v>
+      </c>
+      <c r="N50" s="16">
+        <v>3.9035106362236536</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="15" customHeight="1">
       <c r="A51" s="13" t="s">
         <v>11</v>
       </c>
@@ -2397,11 +2664,17 @@
       <c r="K51" s="7">
         <v>14.910770695653172</v>
       </c>
-      <c r="L51" s="19">
+      <c r="L51" s="7">
         <v>18.576175388668556</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
+      <c r="M51" s="16">
+        <v>21.781510448168625</v>
+      </c>
+      <c r="N51" s="16">
+        <v>32.12206492628205</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15" customHeight="1">
       <c r="A52" s="14" t="s">
         <v>6</v>
       </c>
@@ -2435,11 +2708,17 @@
       <c r="K52" s="8">
         <v>0.2449617547385545</v>
       </c>
-      <c r="L52" s="20">
+      <c r="L52" s="8">
         <v>0.65722600560982458</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1">
+      <c r="M52" s="17">
+        <v>1.2820827159049744</v>
+      </c>
+      <c r="N52" s="17">
+        <v>2.5917193215603636</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="15" customHeight="1">
       <c r="A53" s="14" t="s">
         <v>7</v>
       </c>
@@ -2473,11 +2752,17 @@
       <c r="K53" s="8">
         <v>14.665808940914618</v>
       </c>
-      <c r="L53" s="20">
+      <c r="L53" s="8">
         <v>17.918949383058731</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
+      <c r="M53" s="17">
+        <v>20.499427732263651</v>
+      </c>
+      <c r="N53" s="17">
+        <v>29.530345604721688</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="15" customHeight="1">
       <c r="A54" s="13" t="s">
         <v>12</v>
       </c>
@@ -2511,11 +2796,17 @@
       <c r="K54" s="7">
         <v>336.21685959583226</v>
       </c>
-      <c r="L54" s="19">
+      <c r="L54" s="7">
         <v>373.2938977928938</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
+      <c r="M54" s="16">
+        <v>425.77030298956402</v>
+      </c>
+      <c r="N54" s="16">
+        <v>556.37449859277626</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
       <c r="A55" s="15" t="s">
         <v>13</v>
       </c>
@@ -2549,49 +2840,59 @@
       <c r="K55" s="9">
         <v>339.14039872177398</v>
       </c>
-      <c r="L55" s="21">
+      <c r="L55" s="9">
         <v>376.32278342119167</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A56" s="17" t="s">
+      <c r="M55" s="18">
+        <v>428.67579137229023</v>
+      </c>
+      <c r="N55" s="18">
+        <v>560.27800922899996</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A56" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-    </row>
-    <row r="57" spans="1:12" ht="15" customHeight="1">
-      <c r="A57" s="18" t="s">
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+    </row>
+    <row r="57" spans="1:14" ht="15" customHeight="1">
+      <c r="A57" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A20:L20"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="A56:L56"/>
-    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="A57:N57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
